--- a/data/trans_orig/P55S3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA823F87-10BB-4DDE-9B6C-8922481C27D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9870BE2E-A8D6-4E18-948F-F65F6E20347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD553B2D-55B2-48DB-A970-6EC34B6FD102}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{517D6F91-CD87-45DC-8F1C-D226381DA7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -208,13 +208,13 @@
     <t>74,01%</t>
   </si>
   <si>
-    <t>14,85%</t>
+    <t>15,12%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>85,15%</t>
+    <t>84,88%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -469,16 +469,16 @@
     <t>4,76%</t>
   </si>
   <si>
-    <t>15,75%</t>
+    <t>15,32%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>37,22%</t>
@@ -493,19 +493,19 @@
     <t>65,55%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>58,24%</t>
   </si>
   <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
   </si>
   <si>
     <t>14,4%</t>
@@ -517,19 +517,19 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>29,73%</t>
@@ -544,16 +544,16 @@
     <t>2,45%</t>
   </si>
   <si>
-    <t>14,07%</t>
+    <t>11,9%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>10,63%</t>
@@ -565,19 +565,19 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -998,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF0CD9C-7AC4-47C1-81D5-B45D50A3C14F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6C6AD6-08CF-4BF5-ABDD-ABE21D5FA7C8}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4155,7 +4155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A73953-B2D0-4DA1-8AA1-0C1DC4016CAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AC5830-A396-48D2-8A5C-0F7046C44DA2}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7200,7 +7200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51C3BA5-AF71-432E-80F3-A5B8DFB5F377}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8956FEE5-E27A-4FB7-8FF5-21C98A59F99F}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P55S3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S3-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9870BE2E-A8D6-4E18-948F-F65F6E20347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{182BC573-CB22-4831-A16B-4168EA8B6446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{517D6F91-CD87-45DC-8F1C-D226381DA7AA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C051267-8015-4420-B91D-C87C2E041C91}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="184">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2012 (Tasa respuesta: 0,11%)</t>
   </si>
@@ -157,49 +157,52 @@
     <t>69,0%</t>
   </si>
   <si>
-    <t>26,36%</t>
+    <t>18,37%</t>
   </si>
   <si>
     <t>73,62%</t>
   </si>
   <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2016 (Tasa respuesta: 0,02%)</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2023 (Tasa respuesta: 0,65%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
     <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2015 (Tasa respuesta: 0,02%)</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2023 (Tasa respuesta: 0,65%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -998,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6C6AD6-08CF-4BF5-ABDD-ABE21D5FA7C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C48DC9-AC98-40BF-A6AE-6A09B237E8D6}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4155,7 +4158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AC5830-A396-48D2-8A5C-0F7046C44DA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D039CBF-BE3F-4204-8D56-5BCE25A8F1F9}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7200,7 +7203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8956FEE5-E27A-4FB7-8FF5-21C98A59F99F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA190A2-4D6B-498D-BCFA-00791F8663C9}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7360,7 +7363,7 @@
         <v>19</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,7 +7396,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -7405,10 +7408,10 @@
         <v>2112</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -7462,7 +7465,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7510,13 @@
         <v>741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,7 +7567,7 @@
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,7 +7618,7 @@
         <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,7 +7707,7 @@
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -7719,7 +7722,7 @@
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,13 +7752,13 @@
         <v>3482</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -7764,13 +7767,13 @@
         <v>3482</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7803,13 @@
         <v>1248</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -7815,13 +7818,13 @@
         <v>1248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7836,7 +7839,7 @@
         <v>1874</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>18</v>
@@ -7857,7 +7860,7 @@
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -7866,13 +7869,13 @@
         <v>1874</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,7 +7890,7 @@
         <v>936</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>18</v>
@@ -7902,13 +7905,13 @@
         <v>595</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -7917,13 +7920,13 @@
         <v>1531</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7959,7 +7962,7 @@
         <v>19</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7974,7 +7977,7 @@
         <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8063,7 +8066,7 @@
         <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8078,7 +8081,7 @@
         <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,13 +8111,13 @@
         <v>2704</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -8123,13 +8126,13 @@
         <v>3224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8159,13 +8162,13 @@
         <v>1213</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -8174,13 +8177,13 @@
         <v>1213</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8216,7 +8219,7 @@
         <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8231,7 +8234,7 @@
         <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,13 +8264,13 @@
         <v>564</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -8276,13 +8279,13 @@
         <v>564</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8318,7 +8321,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -8333,7 +8336,7 @@
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8470,7 +8473,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
@@ -8485,7 +8488,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>23</v>
@@ -8773,7 +8776,7 @@
         <v>499</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>18</v>
@@ -8788,7 +8791,7 @@
         <v>499</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>18</v>
@@ -8822,7 +8825,7 @@
         <v>723</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>18</v>
@@ -8837,7 +8840,7 @@
         <v>723</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>18</v>
@@ -9126,7 +9129,7 @@
         <v>19</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -9174,7 +9177,7 @@
         <v>21</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>23</v>
@@ -9186,10 +9189,10 @@
         <v>1642</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>21</v>
@@ -9228,7 +9231,7 @@
         <v>19</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -9237,13 +9240,13 @@
         <v>522</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9279,7 +9282,7 @@
         <v>19</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -9330,7 +9333,7 @@
         <v>19</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -9381,7 +9384,7 @@
         <v>19</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -9479,13 +9482,13 @@
         <v>704</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -9494,13 +9497,13 @@
         <v>704</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9530,13 +9533,13 @@
         <v>3280</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M47" s="7">
         <v>6</v>
@@ -9545,13 +9548,13 @@
         <v>4040</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9581,13 +9584,13 @@
         <v>1354</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -9596,13 +9599,13 @@
         <v>1354</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9632,13 +9635,13 @@
         <v>618</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -9647,13 +9650,13 @@
         <v>618</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9683,13 +9686,13 @@
         <v>623</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -9698,13 +9701,13 @@
         <v>623</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9740,7 +9743,7 @@
         <v>19</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -9755,7 +9758,7 @@
         <v>19</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9823,13 +9826,13 @@
         <v>705</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -9853,13 +9856,13 @@
         <v>705</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -9874,7 +9877,7 @@
         <v>1402</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>18</v>
@@ -9889,7 +9892,7 @@
         <v>1270</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>18</v>
@@ -9904,13 +9907,13 @@
         <v>2672</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -9925,13 +9928,13 @@
         <v>745</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
@@ -9940,7 +9943,7 @@
         <v>1293</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>18</v>
@@ -9955,13 +9958,13 @@
         <v>2037</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10012,7 +10015,7 @@
         <v>19</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10063,7 +10066,7 @@
         <v>19</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -10114,7 +10117,7 @@
         <v>19</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10182,13 +10185,13 @@
         <v>705</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -10197,13 +10200,13 @@
         <v>1203</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -10212,13 +10215,13 @@
         <v>1908</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -10233,13 +10236,13 @@
         <v>3274</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H61" s="7">
         <v>31</v>
@@ -10248,13 +10251,13 @@
         <v>16576</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M61" s="7">
         <v>36</v>
@@ -10263,13 +10266,13 @@
         <v>19850</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -10284,13 +10287,13 @@
         <v>1267</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H62" s="7">
         <v>8</v>
@@ -10299,13 +10302,13 @@
         <v>5108</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M62" s="7">
         <v>10</v>
@@ -10314,13 +10317,13 @@
         <v>6375</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -10335,13 +10338,13 @@
         <v>2615</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -10350,13 +10353,13 @@
         <v>618</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M63" s="7">
         <v>4</v>
@@ -10365,13 +10368,13 @@
         <v>3234</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -10386,13 +10389,13 @@
         <v>936</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H64" s="7">
         <v>3</v>
@@ -10401,13 +10404,13 @@
         <v>1782</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M64" s="7">
         <v>4</v>
@@ -10416,13 +10419,13 @@
         <v>2718</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -10443,7 +10446,7 @@
         <v>19</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -10458,7 +10461,7 @@
         <v>19</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -10473,7 +10476,7 @@
         <v>19</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
